--- a/Assets/NonAssets/WeaponTemplate.xlsx
+++ b/Assets/NonAssets/WeaponTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project_ISO\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project_GA\Assets\NonAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E5422A-CD3A-49BB-8ECF-63D69F125C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5236A44-B88A-49AF-9381-7EDA6B1C1432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" activeTab="2" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
+    <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
   </bookViews>
   <sheets>
     <sheet name="실제" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>TemplateID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>#공격 범위 변수 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60859EBD-722A-4E94-97D7-89616424D84A}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,7 +701,9 @@
       <c r="A2" s="5">
         <v>101</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1015,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0179D40F-7109-4215-A11F-06631E23BBD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,25 +1075,25 @@
         <f>실제!$A2</f>
         <v>101</v>
       </c>
-      <c r="B2">
-        <f>실제!$A2</f>
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <f>실제!$A2</f>
-        <v>101</v>
+      <c r="B2" t="str">
+        <f>실제!B2</f>
+        <v>Assets\Sprite</v>
+      </c>
+      <c r="C2" t="str">
+        <f>실제!C2</f>
+        <v>Iron Sword</v>
       </c>
       <c r="D2">
-        <f>실제!$A2</f>
-        <v>101</v>
+        <f>실제!D2</f>
+        <v>10</v>
       </c>
       <c r="E2">
-        <f>실제!$A2</f>
-        <v>101</v>
+        <f>실제!E2</f>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <f>실제!$A2</f>
-        <v>101</v>
+        <f>실제!F2</f>
+        <v>1</v>
       </c>
       <c r="G2">
         <f>실제!H2</f>
@@ -1104,24 +1110,24 @@
         <v>102</v>
       </c>
       <c r="B3">
-        <f>실제!$A3</f>
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <f>실제!$A3</f>
-        <v>102</v>
+        <f>실제!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>실제!C3</f>
+        <v>Copper Spear</v>
       </c>
       <c r="D3">
-        <f>실제!$A3</f>
-        <v>102</v>
+        <f>실제!D3</f>
+        <v>15</v>
       </c>
       <c r="E3">
-        <f>실제!$A3</f>
-        <v>102</v>
+        <f>실제!E3</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f>실제!$A3</f>
-        <v>102</v>
+        <f>실제!F3</f>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>실제!H3</f>
@@ -1138,24 +1144,24 @@
         <v>103</v>
       </c>
       <c r="B4">
-        <f>실제!$A4</f>
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <f>실제!$A4</f>
-        <v>103</v>
+        <f>실제!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>실제!C4</f>
+        <v>Laser Gun</v>
       </c>
       <c r="D4">
-        <f>실제!$A4</f>
-        <v>103</v>
+        <f>실제!D4</f>
+        <v>15</v>
       </c>
       <c r="E4">
-        <f>실제!$A4</f>
-        <v>103</v>
+        <f>실제!E4</f>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f>실제!$A4</f>
-        <v>103</v>
+        <f>실제!F4</f>
+        <v>3</v>
       </c>
       <c r="G4">
         <f>실제!H4</f>
@@ -1172,24 +1178,24 @@
         <v>104</v>
       </c>
       <c r="B5">
-        <f>실제!$A5</f>
-        <v>104</v>
-      </c>
-      <c r="C5">
-        <f>실제!$A5</f>
-        <v>104</v>
+        <f>실제!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>실제!C5</f>
+        <v>Pistol</v>
       </c>
       <c r="D5">
-        <f>실제!$A5</f>
-        <v>104</v>
+        <f>실제!D5</f>
+        <v>15</v>
       </c>
       <c r="E5">
-        <f>실제!$A5</f>
-        <v>104</v>
+        <f>실제!E5</f>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f>실제!$A5</f>
-        <v>104</v>
+        <f>실제!F5</f>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>실제!H5</f>

--- a/Assets/NonAssets/WeaponTemplate.xlsx
+++ b/Assets/NonAssets/WeaponTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project_GA\Assets\NonAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5236A44-B88A-49AF-9381-7EDA6B1C1432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80842016-DBFA-420A-9544-1C598489E157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
+    <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" activeTab="2" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
   </bookViews>
   <sheets>
     <sheet name="실제" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>TemplateID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iron Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Laser Gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,7 +193,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\Sprite</t>
+    <t>Copper Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/CopperSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/ironspear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/LaserGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Pistol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,9 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60859EBD-722A-4E94-97D7-89616424D84A}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -705,7 +717,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6">
         <v>10</v>
@@ -739,9 +751,11 @@
       <c r="A3" s="5">
         <v>102</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <v>15</v>
@@ -775,9 +789,11 @@
       <c r="A4" s="5">
         <v>103</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6">
         <v>15</v>
@@ -811,9 +827,11 @@
       <c r="A5" s="5">
         <v>104</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6">
         <v>15</v>
@@ -1021,14 +1039,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0179D40F-7109-4215-A11F-06631E23BBD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
@@ -1077,11 +1095,11 @@
       </c>
       <c r="B2" t="str">
         <f>실제!B2</f>
-        <v>Assets\Sprite</v>
+        <v>Sprite/CopperSword</v>
       </c>
       <c r="C2" t="str">
         <f>실제!C2</f>
-        <v>Iron Sword</v>
+        <v>Copper Sword</v>
       </c>
       <c r="D2">
         <f>실제!D2</f>
@@ -1109,13 +1127,13 @@
         <f>실제!$A3</f>
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <f>실제!B3</f>
-        <v>0</v>
+        <v>Sprite/ironspear</v>
       </c>
       <c r="C3" t="str">
         <f>실제!C3</f>
-        <v>Copper Spear</v>
+        <v>Iron Spear</v>
       </c>
       <c r="D3">
         <f>실제!D3</f>
@@ -1143,9 +1161,9 @@
         <f>실제!$A4</f>
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <f>실제!B4</f>
-        <v>0</v>
+        <v>Sprite/LaserGun</v>
       </c>
       <c r="C4" t="str">
         <f>실제!C4</f>
@@ -1177,9 +1195,9 @@
         <f>실제!$A5</f>
         <v>104</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <f>실제!B5</f>
-        <v>0</v>
+        <v>Sprite/Pistol</v>
       </c>
       <c r="C5" t="str">
         <f>실제!C5</f>
